--- a/application/data/Generated ReportEmployee_Deduction_Auditing_Result_Report.xlsx
+++ b/application/data/Generated ReportEmployee_Deduction_Auditing_Result_Report.xlsx
@@ -7,16 +7,18 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Feb-2022PensionAllowanceDeduc" sheetId="1" r:id="rId1"/>
-    <sheet name="Feb-2022SocialAllowanceDeduc" sheetId="2" r:id="rId2"/>
-    <sheet name="Feb-2022UnemploymentDeduc" sheetId="3" r:id="rId3"/>
+    <sheet name="Jan-2022PensionAllowanceDeduc" sheetId="1" r:id="rId1"/>
+    <sheet name="Jan-2022SocialAllowanceDeduc" sheetId="2" r:id="rId2"/>
+    <sheet name="Jan-2022UnemploymentDeduc" sheetId="3" r:id="rId3"/>
+    <sheet name="Jul-2022PensionAllowanceDeduc" sheetId="4" r:id="rId4"/>
+    <sheet name="Jul-2022SocialAllowanceDeduc" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
   <si>
     <t>CPR_NO</t>
   </si>
@@ -394,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,99 +424,82 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>670225177</v>
+        <v>630901627</v>
       </c>
       <c r="B2">
-        <v>5000</v>
+        <v>610</v>
       </c>
       <c r="C2">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>372</v>
+        <v>36.6</v>
       </c>
       <c r="F2">
-        <v>64.26000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>670225177</v>
+        <v>791104575</v>
       </c>
       <c r="B3">
-        <v>120</v>
+        <v>588</v>
       </c>
       <c r="C3">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>11.52</v>
+        <v>35.28</v>
       </c>
       <c r="F3">
-        <v>64.26000000000001</v>
+        <v>46.74</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>670225177</v>
+        <v>850706114</v>
       </c>
       <c r="B4">
-        <v>5000</v>
+        <v>454.71</v>
       </c>
       <c r="C4">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>372</v>
+        <v>27.282</v>
       </c>
       <c r="F4">
-        <v>64.26000000000001</v>
+        <v>52.86</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>670225177</v>
+        <v>921201893</v>
       </c>
       <c r="B5">
-        <v>120</v>
+        <v>431.325</v>
       </c>
       <c r="C5">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>11.52</v>
+        <v>25.879</v>
       </c>
       <c r="F5">
-        <v>64.26000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>400104458</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>34.2</v>
       </c>
     </row>
   </sheetData>
@@ -524,7 +509,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -552,99 +537,82 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>670225177</v>
+        <v>630901627</v>
       </c>
       <c r="B2">
-        <v>5000</v>
+        <v>610</v>
       </c>
       <c r="C2">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>670225177</v>
+        <v>850706114</v>
       </c>
       <c r="B3">
-        <v>120</v>
+        <v>454.71</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>36.13</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>0.6</v>
+        <v>2.167</v>
       </c>
       <c r="F3">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>670225177</v>
+        <v>921201893</v>
       </c>
       <c r="B4">
-        <v>5000</v>
+        <v>431.325</v>
       </c>
       <c r="C4">
-        <v>800</v>
+        <v>24.775</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>48</v>
+        <v>1.486</v>
       </c>
       <c r="F4">
-        <v>500</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>670225177</v>
+        <v>950101958</v>
       </c>
       <c r="B5">
-        <v>120</v>
+        <v>544</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>55.23</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>0.6</v>
+        <v>3.313</v>
       </c>
       <c r="F5">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>400104458</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +622,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -685,128 +653,48 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>670225177</v>
+        <v>850706114</v>
       </c>
       <c r="B2">
-        <v>5000</v>
+        <v>454.71</v>
       </c>
       <c r="C2">
-        <v>800</v>
+        <v>36.13</v>
       </c>
       <c r="D2">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>70</v>
+        <v>4.908</v>
       </c>
       <c r="G2">
-        <v>600</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>670225177</v>
+        <v>950609609</v>
       </c>
       <c r="B3">
-        <v>5000</v>
+        <v>1166</v>
       </c>
       <c r="C3">
-        <v>800</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>70</v>
+        <v>11.98</v>
       </c>
       <c r="G3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>400104458</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>400104423</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>140234423</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>130234423</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+        <v>5.23</v>
       </c>
     </row>
   </sheetData>
@@ -814,251 +702,248 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100130D6B2AF3F2AF458C43B9C6110537C4" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="90a1587306da55a6b80ee404b6dd751a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e515cc4-f6ef-45fe-ac00-0b7b111990ed" xmlns:ns3="0f8d6900-7132-48c9-bb46-02b84e4fe5fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a9d4aefeaa8aa22c95bd9f1c14af7a91" ns2:_="" ns3:_="">
-    <xsd:import namespace="1e515cc4-f6ef-45fe-ac00-0b7b111990ed"/>
-    <xsd:import namespace="0f8d6900-7132-48c9-bb46-02b84e4fe5fd"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1e515cc4-f6ef-45fe-ac00-0b7b111990ed" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="7efeb1b6-f9a7-4f88-87fb-dfc61fe0f7c5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="19" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0f8d6900-7132-48c9-bb46-02b84e4fe5fd" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{2383d0c2-9b02-46de-a161-70f4b7609417}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="0f8d6900-7132-48c9-bb46-02b84e4fe5fd">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>630901627</v>
+      </c>
+      <c r="B2">
+        <v>610</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>36.6</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>720808960</v>
+      </c>
+      <c r="B3">
+        <v>828.87</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>49.732</v>
+      </c>
+      <c r="F3">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>731005163</v>
+      </c>
+      <c r="B4">
+        <v>406.88</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>24.412</v>
+      </c>
+      <c r="F4">
+        <v>30.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>790800306</v>
+      </c>
+      <c r="B5">
+        <v>1838.86</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>110.331</v>
+      </c>
+      <c r="F5">
+        <v>99.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>791104575</v>
+      </c>
+      <c r="B6">
+        <v>588</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>35.28</v>
+      </c>
+      <c r="F6">
+        <v>46.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>791200531</v>
+      </c>
+      <c r="B7">
+        <v>1035.97</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>62.158</v>
+      </c>
+      <c r="F7">
+        <v>82.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>901007757</v>
+      </c>
+      <c r="B8">
+        <v>541.49</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>32.489</v>
+      </c>
+      <c r="F8">
+        <v>41.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>941207692</v>
+      </c>
+      <c r="B9">
+        <v>447.34</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>26.84</v>
+      </c>
+      <c r="F9">
+        <v>23.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0f8d6900-7132-48c9-bb46-02b84e4fe5fd" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e515cc4-f6ef-45fe-ac00-0b7b111990ed">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7109534B-3E2E-4D37-8179-8B8E11279D59}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B73A8930-6569-45FD-AA29-9D1A20E7355C}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{532D7FA0-7F01-4CEE-88A0-23C8F6509AE4}"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>630901627</v>
+      </c>
+      <c r="B2">
+        <v>610</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/application/data/Generated ReportEmployee_Deduction_Auditing_Result_Report.xlsx
+++ b/application/data/Generated ReportEmployee_Deduction_Auditing_Result_Report.xlsx
@@ -10,15 +10,14 @@
     <sheet name="Jan-2022PensionAllowanceDeduc" sheetId="1" r:id="rId1"/>
     <sheet name="Jan-2022SocialAllowanceDeduc" sheetId="2" r:id="rId2"/>
     <sheet name="Jan-2022UnemploymentDeduc" sheetId="3" r:id="rId3"/>
-    <sheet name="Jul-2022PensionAllowanceDeduc" sheetId="4" r:id="rId4"/>
-    <sheet name="Jul-2022SocialAllowanceDeduc" sheetId="5" r:id="rId5"/>
+    <sheet name="Nov-2022UnemploymentDeduc" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="7">
   <si>
     <t>CPR_NO</t>
   </si>
@@ -704,13 +703,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,228 +717,1048 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>630901627</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>610</v>
+        <v>5000</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E2">
-        <v>36.6</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>70</v>
+      </c>
+      <c r="G2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>720808960</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>828.87</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>49.732</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>56.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>731005163</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>406.88</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>24.412</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>30.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>790800306</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>1838.86</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>110.331</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>99.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
-        <v>791104575</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>588</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>35.28</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>46.74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
-        <v>791200531</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>1035.97</v>
+        <v>5000</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>1200</v>
       </c>
       <c r="E7">
-        <v>62.158</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>82.08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>70</v>
+      </c>
+      <c r="G7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
-        <v>901007757</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>541.49</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>32.489</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>41.04</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
-        <v>941207692</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>447.34</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>26.84</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>23.88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>630901627</v>
-      </c>
-      <c r="B2">
-        <v>610</v>
-      </c>
-      <c r="C2">
-        <v>50</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>5000</v>
+      </c>
+      <c r="C12">
+        <v>800</v>
+      </c>
+      <c r="D12">
+        <v>1200</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>70</v>
+      </c>
+      <c r="G12">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>5000</v>
+      </c>
+      <c r="C17">
+        <v>800</v>
+      </c>
+      <c r="D17">
+        <v>1200</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>70</v>
+      </c>
+      <c r="G17">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>5000</v>
+      </c>
+      <c r="C22">
+        <v>800</v>
+      </c>
+      <c r="D22">
+        <v>1200</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>70</v>
+      </c>
+      <c r="G22">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>5000</v>
+      </c>
+      <c r="C27">
+        <v>800</v>
+      </c>
+      <c r="D27">
+        <v>1200</v>
+      </c>
+      <c r="E27">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>70</v>
+      </c>
+      <c r="G27">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>5000</v>
+      </c>
+      <c r="C32">
+        <v>800</v>
+      </c>
+      <c r="D32">
+        <v>1200</v>
+      </c>
+      <c r="E32">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>70</v>
+      </c>
+      <c r="G32">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>5000</v>
+      </c>
+      <c r="C37">
+        <v>800</v>
+      </c>
+      <c r="D37">
+        <v>1200</v>
+      </c>
+      <c r="E37">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>70</v>
+      </c>
+      <c r="G37">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>5000</v>
+      </c>
+      <c r="C42">
+        <v>800</v>
+      </c>
+      <c r="D42">
+        <v>1200</v>
+      </c>
+      <c r="E42">
+        <v>9</v>
+      </c>
+      <c r="F42">
+        <v>70</v>
+      </c>
+      <c r="G42">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>5000</v>
+      </c>
+      <c r="C47">
+        <v>800</v>
+      </c>
+      <c r="D47">
+        <v>1200</v>
+      </c>
+      <c r="E47">
+        <v>9</v>
+      </c>
+      <c r="F47">
+        <v>70</v>
+      </c>
+      <c r="G47">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
         <v>0</v>
       </c>
     </row>
